--- a/11_集計表.xlsx
+++ b/11_集計表.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="集計表" sheetId="1" r:id="rId1"/>
+    <sheet name="かけ算九九" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>市場調査アンケート</t>
     <rPh sb="0" eb="4">
@@ -154,6 +155,55 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ダンジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>掛け算表</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>← 列）変化　 行）固定</t>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↑ 列）固定　 行）変化</t>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -165,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,8 +266,44 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="游ゴシック Medium"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="游ゴシック Medium"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,8 +322,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -288,6 +386,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -298,7 +411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -306,12 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,6 +435,28 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -649,45 +778,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>45130</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -695,17 +824,17 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>1002</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>1223</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <f>B6+C6</f>
         <v>2225</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <f>D6/$D$13</f>
         <v>0.11216413772243787</v>
       </c>
@@ -714,17 +843,17 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>138</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>166</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <f t="shared" ref="D7:D12" si="0">B7+C7</f>
         <v>304</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <f t="shared" ref="E7:E12" si="1">D7/$D$13</f>
         <v>1.532489791803196E-2</v>
       </c>
@@ -733,17 +862,17 @@
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>1494</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>1577</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>3071</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <f t="shared" si="1"/>
         <v>0.15481171548117154</v>
       </c>
@@ -752,17 +881,17 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>3571</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>3746</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>7317</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <f t="shared" si="1"/>
         <v>0.36885617784947322</v>
       </c>
@@ -771,17 +900,17 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>1468</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>1094</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>2562</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
         <v>0.12915259363815093</v>
       </c>
@@ -790,17 +919,17 @@
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>1812</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>1927</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>3739</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <f t="shared" si="1"/>
         <v>0.1884861622221102</v>
       </c>
@@ -809,44 +938,44 @@
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>427</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>192</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>619</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <f t="shared" si="1"/>
         <v>3.1204315168624288E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <f>SUM(B6:B12)</f>
         <v>9912</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
         <v>9925</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <f>SUM(D6:D12)</f>
         <v>19837</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <f>SUM(E6:E12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -889,4 +1018,449 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="11" width="5.77734375" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18">
+        <v>2</v>
+      </c>
+      <c r="E2" s="18">
+        <v>3</v>
+      </c>
+      <c r="F2" s="18">
+        <v>4</v>
+      </c>
+      <c r="G2" s="18">
+        <v>5</v>
+      </c>
+      <c r="H2" s="18">
+        <v>6</v>
+      </c>
+      <c r="I2" s="18">
+        <v>7</v>
+      </c>
+      <c r="J2" s="18">
+        <v>8</v>
+      </c>
+      <c r="K2" s="18">
+        <v>9</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17">
+        <f>C$2*$B3</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" ref="D3:K11" si="0">D$2*$B3</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K3" s="17">
+        <f>K$2*$B3</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17">
+        <f t="shared" ref="C4:C11" si="1">C$2*$B4</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E4" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K4" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K5" s="17">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="19">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="19">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="19">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="K9" s="17">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="19">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="K10" s="17">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="19">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="I11" s="17">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="K11" s="17">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>